--- a/projects/optimTest4.xlsx
+++ b/projects/optimTest4.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="602">
   <si>
     <t>type</t>
   </si>
@@ -1789,9 +1789,6 @@
   </si>
   <si>
     <t>run_openstudio_workflow.rb</t>
-  </si>
-  <si>
-    <t>epsilonGradient</t>
   </si>
   <si>
     <t>normType</t>
@@ -5029,10 +5026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5172,7 +5169,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>501</v>
@@ -5260,7 +5257,7 @@
         <v>474</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5338,93 +5335,85 @@
       <c r="A31" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B31" s="35">
-        <v>1E-3</v>
+      <c r="B31" s="35" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B32" s="35" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B33" s="35">
+      <c r="B32" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B33" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B34" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B39" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="14"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5458,7 +5447,7 @@
   <dimension ref="A1:X145"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
@@ -9501,7 +9490,7 @@
         <v>585</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -9564,10 +9553,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" t="s">
         <v>593</v>
-      </c>
-      <c r="B6" t="s">
-        <v>594</v>
       </c>
       <c r="C6" t="s">
         <v>496</v>
@@ -9583,10 +9572,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B7" t="s">
         <v>595</v>
-      </c>
-      <c r="B7" t="s">
-        <v>596</v>
       </c>
       <c r="C7" t="s">
         <v>496</v>
@@ -9603,10 +9592,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" t="s">
         <v>597</v>
-      </c>
-      <c r="B8" t="s">
-        <v>598</v>
       </c>
       <c r="C8" t="s">
         <v>496</v>
@@ -9628,10 +9617,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B9" t="s">
         <v>599</v>
-      </c>
-      <c r="B9" t="s">
-        <v>600</v>
       </c>
       <c r="C9" t="s">
         <v>496</v>

--- a/projects/optimTest4.xlsx
+++ b/projects/optimTest4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12060" windowHeight="4560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4998,17 +4998,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -5026,23 +5026,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="22"/>
       <c r="B1" s="27"/>
       <c r="C1" s="22"/>
@@ -5051,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>479</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>497</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
         <v>499</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>459</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>460</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>481</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>490</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>491</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>492</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>494</v>
       </c>
@@ -5238,10 +5238,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>474</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A23" s="12" t="s">
         <v>470</v>
       </c>
@@ -5271,7 +5268,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5279,7 +5276,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5287,7 +5284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>584</v>
       </c>
@@ -5296,7 +5293,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>580</v>
       </c>
@@ -5305,7 +5302,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>581</v>
       </c>
@@ -5314,7 +5311,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>582</v>
       </c>
@@ -5323,7 +5320,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>583</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>587</v>
       </c>
@@ -5339,7 +5336,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>589</v>
       </c>
@@ -5347,73 +5344,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5">
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B37" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:5" ht="28">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D38" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="14"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5446,34 +5446,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" style="1"/>
-    <col min="18" max="18" width="46.109375" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="11.5" style="1"/>
+    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.5" style="1"/>
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5507,7 +5507,7 @@
       <c r="W1" s="36"/>
       <c r="X1" s="36"/>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5520,7 +5520,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:24" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="M5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5676,7 +5676,7 @@
       <c r="M7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5715,7 +5715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5742,7 +5742,7 @@
       <c r="M9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5769,7 +5769,7 @@
       <c r="M10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5796,7 +5796,7 @@
       <c r="M11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5823,7 +5823,7 @@
       <c r="M12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5850,7 +5850,7 @@
       <c r="M13" s="3"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5877,7 +5877,7 @@
       <c r="M14" s="3"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5904,7 +5904,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" s="20" t="b">
         <v>1</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="M16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -5958,7 +5958,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -5998,7 +5998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6026,7 +6026,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6054,7 +6054,7 @@
       <c r="M20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -6082,7 +6082,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6110,7 +6110,7 @@
       <c r="M22" s="3"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6138,7 +6138,7 @@
       <c r="M23" s="3"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6166,7 +6166,7 @@
       <c r="M24" s="3"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6194,7 +6194,7 @@
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" customFormat="1">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" customFormat="1">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" customFormat="1">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" customFormat="1">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" customFormat="1">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" customFormat="1">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" customFormat="1" ht="15">
       <c r="A32" s="20" t="b">
         <v>0</v>
       </c>
@@ -6359,7 +6359,7 @@
       <c r="N32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>26</v>
@@ -6399,7 +6399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -6439,7 +6439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6463,7 +6463,7 @@
       <c r="I35" s="20"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" customFormat="1" ht="15">
       <c r="A36" s="20" t="b">
         <v>0</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="I36" s="20"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>26</v>
@@ -6523,7 +6523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -6547,7 +6547,7 @@
       <c r="I38" s="20"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" customFormat="1" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -6571,7 +6571,7 @@
       <c r="I39" s="20"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" customFormat="1" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6595,7 +6595,7 @@
       <c r="I40" s="20"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" customFormat="1" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="I41" s="20"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>26</v>
@@ -6655,7 +6655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" customFormat="1" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6679,7 +6679,7 @@
       <c r="I43" s="20"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" customFormat="1" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6703,7 +6703,7 @@
       <c r="I44" s="20"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" customFormat="1" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -6727,7 +6727,7 @@
       <c r="I45" s="20"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" customFormat="1" ht="15">
       <c r="A46" s="20" t="b">
         <v>0</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="I46" s="20"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" customFormat="1" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" customFormat="1" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>26</v>
@@ -6813,7 +6813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" customFormat="1" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -6837,7 +6837,7 @@
       <c r="I49" s="20"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" customFormat="1" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -6861,7 +6861,7 @@
       <c r="I50" s="20"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" customFormat="1" ht="15">
       <c r="A51" s="20"/>
       <c r="B51" s="20" t="s">
         <v>25</v>
@@ -6885,7 +6885,7 @@
       <c r="I51" s="20"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" customFormat="1" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -6909,7 +6909,7 @@
       <c r="I52" s="20"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" customFormat="1" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -6933,7 +6933,7 @@
       <c r="I53" s="20"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" customFormat="1" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -6957,7 +6957,7 @@
       <c r="I54" s="20"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" customFormat="1" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -6981,7 +6981,7 @@
       <c r="I55" s="20"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" customFormat="1" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7005,7 +7005,7 @@
       <c r="I56" s="20"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" customFormat="1" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7029,7 +7029,7 @@
       <c r="I57" s="20"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" customFormat="1" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7053,7 +7053,7 @@
       <c r="I58" s="20"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" customFormat="1" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7077,7 +7077,7 @@
       <c r="I59" s="20"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" customFormat="1" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7101,7 +7101,7 @@
       <c r="I60" s="20"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" customFormat="1" ht="15">
       <c r="A61" s="20"/>
       <c r="B61" s="20" t="s">
         <v>25</v>
@@ -7125,7 +7125,7 @@
       <c r="I61" s="20"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" customFormat="1" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7149,7 +7149,7 @@
       <c r="I62" s="20"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" customFormat="1" ht="15">
       <c r="A63" s="20" t="b">
         <v>0</v>
       </c>
@@ -7169,7 +7169,7 @@
       <c r="I63" s="20"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" customFormat="1" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" customFormat="1" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>26</v>
@@ -7235,7 +7235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" customFormat="1" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7259,7 +7259,7 @@
       <c r="I66" s="20"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" customFormat="1" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7283,7 +7283,7 @@
       <c r="I67" s="20"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" customFormat="1" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7307,7 +7307,7 @@
       <c r="I68" s="20"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" customFormat="1" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7331,7 +7331,7 @@
       <c r="I69" s="20"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" customFormat="1" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7355,7 +7355,7 @@
       <c r="I70" s="20"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" customFormat="1" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7379,7 +7379,7 @@
       <c r="I71" s="20"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" customFormat="1" ht="15">
       <c r="A72" s="20"/>
       <c r="B72" s="20" t="s">
         <v>25</v>
@@ -7403,7 +7403,7 @@
       <c r="I72" s="20"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" customFormat="1" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7427,7 +7427,7 @@
       <c r="I73" s="20"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" customFormat="1" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7451,7 +7451,7 @@
       <c r="I74" s="20"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" customFormat="1" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7475,7 +7475,7 @@
       <c r="I75" s="20"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" customFormat="1" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7499,7 +7499,7 @@
       <c r="I76" s="20"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" customFormat="1" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7523,7 +7523,7 @@
       <c r="I77" s="20"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" customFormat="1" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7547,7 +7547,7 @@
       <c r="I78" s="20"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" customFormat="1" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7571,7 +7571,7 @@
       <c r="I79" s="20"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" customFormat="1" ht="15">
       <c r="A80" s="20" t="b">
         <v>0</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="I80" s="20"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" customFormat="1" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" customFormat="1" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>26</v>
@@ -7657,7 +7657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" customFormat="1" ht="15">
       <c r="A83" s="20" t="b">
         <v>0</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="I83" s="20"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" customFormat="1" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>26</v>
@@ -7717,7 +7717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" customFormat="1" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -7741,7 +7741,7 @@
       <c r="I85" s="20"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" customFormat="1" ht="15">
       <c r="A86" s="20"/>
       <c r="B86" s="20" t="s">
         <v>25</v>
@@ -7765,7 +7765,7 @@
       <c r="I86" s="20"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" customFormat="1" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -7789,7 +7789,7 @@
       <c r="I87" s="20"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" customFormat="1" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -7813,7 +7813,7 @@
       <c r="I88" s="20"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" customFormat="1" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -7837,7 +7837,7 @@
       <c r="I89" s="20"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" customFormat="1" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -7861,7 +7861,7 @@
       <c r="I90" s="20"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" customFormat="1" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -7885,7 +7885,7 @@
       <c r="I91" s="20"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" customFormat="1" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -7909,7 +7909,7 @@
       <c r="I92" s="20"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" customFormat="1" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -7933,7 +7933,7 @@
       <c r="I93" s="20"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" customFormat="1" ht="15">
       <c r="A94" s="20" t="b">
         <v>0</v>
       </c>
@@ -7953,7 +7953,7 @@
       <c r="I94" s="20"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" customFormat="1" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" customFormat="1" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" customFormat="1" ht="15">
       <c r="A97" s="20"/>
       <c r="B97" s="20" t="s">
         <v>26</v>
@@ -8045,7 +8045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" customFormat="1" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8069,7 +8069,7 @@
       <c r="I98" s="20"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" customFormat="1" ht="15">
       <c r="A99" s="20"/>
       <c r="B99" s="20" t="s">
         <v>25</v>
@@ -8093,7 +8093,7 @@
       <c r="I99" s="20"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" customFormat="1" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8117,7 +8117,7 @@
       <c r="I100" s="20"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" customFormat="1" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8141,7 +8141,7 @@
       <c r="I101" s="20"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" customFormat="1" ht="15">
       <c r="A102" s="20"/>
       <c r="B102" s="20" t="s">
         <v>25</v>
@@ -8165,7 +8165,7 @@
       <c r="I102" s="20"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" customFormat="1" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8189,7 +8189,7 @@
       <c r="I103" s="20"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" customFormat="1" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8213,7 +8213,7 @@
       <c r="I104" s="20"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" customFormat="1" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8237,7 +8237,7 @@
       <c r="I105" s="20"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" customFormat="1" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8261,7 +8261,7 @@
       <c r="I106" s="20"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" customFormat="1" ht="15">
       <c r="A107" s="20"/>
       <c r="B107" s="20" t="s">
         <v>25</v>
@@ -8285,7 +8285,7 @@
       <c r="I107" s="20"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" customFormat="1" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8309,7 +8309,7 @@
       <c r="I108" s="20"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" customFormat="1" ht="15">
       <c r="A109" s="20" t="b">
         <v>0</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="I109" s="20"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" customFormat="1" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" customFormat="1" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>26</v>
@@ -8395,7 +8395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" customFormat="1" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8419,7 +8419,7 @@
       <c r="I112" s="20"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" customFormat="1" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8443,7 +8443,7 @@
       <c r="I113" s="20"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" customFormat="1" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8467,7 +8467,7 @@
       <c r="I114" s="20"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" customFormat="1" ht="15">
       <c r="A115" s="20"/>
       <c r="B115" s="20" t="s">
         <v>25</v>
@@ -8491,7 +8491,7 @@
       <c r="I115" s="20"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" customFormat="1" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8515,7 +8515,7 @@
       <c r="I116" s="20"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" customFormat="1" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8539,7 +8539,7 @@
       <c r="I117" s="20"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" customFormat="1" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8563,7 +8563,7 @@
       <c r="I118" s="20"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" customFormat="1" ht="15">
       <c r="A119" s="20"/>
       <c r="B119" s="20" t="s">
         <v>25</v>
@@ -8587,7 +8587,7 @@
       <c r="I119" s="20"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" customFormat="1" ht="15">
       <c r="A120" s="20" t="b">
         <v>0</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="I120" s="20"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" customFormat="1" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" customFormat="1" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>26</v>
@@ -8673,7 +8673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="15">
       <c r="A123" s="20" t="b">
         <v>0</v>
       </c>
@@ -8704,7 +8704,7 @@
       <c r="U123" s="33"/>
       <c r="V123" s="33"/>
     </row>
-    <row r="124" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8741,7 +8741,7 @@
       <c r="U124" s="33"/>
       <c r="V124" s="33"/>
     </row>
-    <row r="125" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>26</v>
@@ -8787,7 +8787,7 @@
       <c r="U125" s="33"/>
       <c r="V125" s="33"/>
     </row>
-    <row r="126" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8818,7 +8818,7 @@
       <c r="U126" s="33"/>
       <c r="V126" s="33"/>
     </row>
-    <row r="127" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -8855,7 +8855,7 @@
       <c r="U127" s="33"/>
       <c r="V127" s="33"/>
     </row>
-    <row r="128" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>26</v>
@@ -8901,7 +8901,7 @@
       <c r="U128" s="33"/>
       <c r="V128" s="33"/>
     </row>
-    <row r="129" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="15">
       <c r="A129" s="20" t="b">
         <v>0</v>
       </c>
@@ -8932,7 +8932,7 @@
       <c r="U129" s="33"/>
       <c r="V129" s="33"/>
     </row>
-    <row r="130" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -8969,7 +8969,7 @@
       <c r="U130" s="33"/>
       <c r="V130" s="33"/>
     </row>
-    <row r="131" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>26</v>
@@ -9015,7 +9015,7 @@
       <c r="U131" s="33"/>
       <c r="V131" s="33"/>
     </row>
-    <row r="132" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="15">
       <c r="A132" s="20" t="b">
         <v>0</v>
       </c>
@@ -9046,7 +9046,7 @@
       <c r="U132" s="33"/>
       <c r="V132" s="33"/>
     </row>
-    <row r="133" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9083,7 +9083,7 @@
       <c r="U133" s="33"/>
       <c r="V133" s="33"/>
     </row>
-    <row r="134" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>26</v>
@@ -9129,7 +9129,7 @@
       <c r="U134" s="33"/>
       <c r="V134" s="33"/>
     </row>
-    <row r="135" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" customFormat="1">
       <c r="A135" t="b">
         <v>0</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" customFormat="1">
       <c r="B136" t="s">
         <v>26</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" customFormat="1">
       <c r="B137" t="s">
         <v>25</v>
       </c>
@@ -9202,7 +9202,7 @@
       <c r="O137" s="33"/>
       <c r="P137" s="33"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22">
       <c r="A138" t="b">
         <v>1</v>
       </c>
@@ -9223,7 +9223,7 @@
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22">
       <c r="A139"/>
       <c r="B139" t="s">
         <v>25</v>
@@ -9250,7 +9250,7 @@
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22">
       <c r="A140"/>
       <c r="B140" t="s">
         <v>25</v>
@@ -9275,7 +9275,7 @@
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22">
       <c r="A141"/>
       <c r="B141" t="s">
         <v>26</v>
@@ -9315,7 +9315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22">
       <c r="A142"/>
       <c r="B142" t="s">
         <v>25</v>
@@ -9340,7 +9340,7 @@
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22">
       <c r="A143"/>
       <c r="B143" t="s">
         <v>25</v>
@@ -9365,7 +9365,7 @@
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22">
       <c r="A144"/>
       <c r="B144" t="s">
         <v>25</v>
@@ -9392,7 +9392,7 @@
       <c r="J144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>25</v>
@@ -9443,21 +9443,21 @@
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -9470,7 +9470,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>483</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -9509,7 +9509,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>579</v>
       </c>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>578</v>
       </c>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>594</v>
       </c>
@@ -9590,7 +9590,7 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>596</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>598</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -9650,7 +9650,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -9660,15 +9660,15 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" customFormat="1"/>
+    <row r="13" spans="1:16" customFormat="1"/>
+    <row r="14" spans="1:16" customFormat="1">
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" customFormat="1"/>
+    <row r="16" spans="1:16" customFormat="1"/>
+    <row r="17" spans="1:9" customFormat="1"/>
+    <row r="18" spans="1:9">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -9678,7 +9678,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -9688,7 +9688,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -9698,7 +9698,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9708,7 +9708,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9718,7 +9718,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9729,7 +9729,7 @@
       <c r="H23"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9739,7 +9739,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9749,7 +9749,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9759,7 +9759,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9785,23 +9785,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I341"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -9841,7 +9841,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -9910,7 +9910,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -10044,7 +10044,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -10065,7 +10065,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -10134,7 +10134,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -10515,7 +10515,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -10718,7 +10718,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -10739,7 +10739,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -10854,7 +10854,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -10963,7 +10963,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -11187,7 +11187,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -11212,7 +11212,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -11415,7 +11415,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -11436,7 +11436,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -11484,7 +11484,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -11714,7 +11714,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -11733,7 +11733,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -11982,7 +11982,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -12007,7 +12007,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -12026,7 +12026,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -12047,7 +12047,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -12072,7 +12072,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -12091,7 +12091,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -12114,7 +12114,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -12139,7 +12139,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -12162,7 +12162,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -12183,7 +12183,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -12202,7 +12202,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -12227,7 +12227,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -12384,7 +12384,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -12472,7 +12472,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -12610,7 +12610,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -12629,7 +12629,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -12654,7 +12654,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -12677,7 +12677,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -12700,7 +12700,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -12857,7 +12857,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -12882,7 +12882,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -12903,7 +12903,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -13179,7 +13179,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -13198,7 +13198,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -13240,7 +13240,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -13305,7 +13305,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -13330,7 +13330,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -13556,7 +13556,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -13719,7 +13719,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -13807,7 +13807,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -13876,7 +13876,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -13899,7 +13899,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -13918,7 +13918,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -14010,7 +14010,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -14029,7 +14029,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -14050,7 +14050,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -14092,7 +14092,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -14140,7 +14140,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -14161,7 +14161,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -14186,7 +14186,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -14211,7 +14211,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -14230,7 +14230,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -14255,7 +14255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -14301,7 +14301,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -14324,7 +14324,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -14439,7 +14439,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -14458,7 +14458,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -14483,7 +14483,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -14552,7 +14552,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -14598,7 +14598,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -14686,7 +14686,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -14707,7 +14707,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -14776,7 +14776,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -14822,7 +14822,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -14868,7 +14868,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -14960,7 +14960,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -15071,7 +15071,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -15092,7 +15092,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -15115,7 +15115,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -15184,7 +15184,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -15230,7 +15230,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -15276,7 +15276,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -15299,7 +15299,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -15322,7 +15322,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -15437,7 +15437,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -15456,7 +15456,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -15481,7 +15481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -15527,7 +15527,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -15550,7 +15550,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -15592,7 +15592,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -15617,7 +15617,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -15640,7 +15640,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -15659,7 +15659,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -15697,7 +15697,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -15718,7 +15718,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -15810,7 +15810,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -15925,7 +15925,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -16034,7 +16034,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -16080,7 +16080,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -16126,7 +16126,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -16218,7 +16218,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -16264,7 +16264,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -16283,7 +16283,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -16325,7 +16325,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -16346,7 +16346,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -16365,7 +16365,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -16386,7 +16386,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -16405,7 +16405,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -16426,7 +16426,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -16445,7 +16445,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -16487,7 +16487,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -16512,7 +16512,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -16558,7 +16558,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -16627,7 +16627,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -16715,7 +16715,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -16826,7 +16826,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -16849,7 +16849,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -16872,7 +16872,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -16897,7 +16897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -16916,7 +16916,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -16941,7 +16941,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -16964,7 +16964,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -16983,7 +16983,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -17004,7 +17004,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -17025,7 +17025,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -17067,7 +17067,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -17086,7 +17086,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -17111,7 +17111,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -17136,7 +17136,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>25</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>25</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>25</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>25</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>25</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>25</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>25</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:9">
       <c r="B337" t="s">
         <v>25</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:9">
       <c r="B338" t="s">
         <v>25</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:9">
       <c r="B339" t="s">
         <v>25</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:9">
       <c r="B340" t="s">
         <v>25</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:9">
       <c r="B341" t="s">
         <v>25</v>
       </c>
@@ -17431,13 +17431,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>450</v>
       </c>
@@ -17492,17 +17492,17 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>475</v>
       </c>
